--- a/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\Documents\GitHub\Achievement-Vault\games\powerwashsimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F1C82E-66C7-470D-BDCC-CA8FCA207030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAABDB6-74B5-4FC0-8FB8-C4642CA63F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="0" windowWidth="20796" windowHeight="11856" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="3960" yWindow="780" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,17 +997,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
@@ -1103,7 +1103,10 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J2" t="s">
@@ -1112,6 +1115,9 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
       <c r="M2" t="s">
         <v>127</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1159,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F3" t="s">
@@ -1162,7 +1168,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J3" t="s">
@@ -1171,6 +1180,9 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
       <c r="M3" t="s">
         <v>129</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1224,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F4" t="s">
@@ -1221,7 +1233,10 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>111</v>
       </c>
       <c r="J4" t="s">
@@ -1230,6 +1245,9 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
       <c r="M4" t="s">
         <v>131</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1289,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F5" t="s">
@@ -1280,7 +1298,10 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="J5" t="s">
@@ -1289,6 +1310,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
       <c r="M5" t="s">
         <v>133</v>
       </c>
@@ -1317,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1354,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F6" t="s">
@@ -1339,7 +1363,10 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>115</v>
       </c>
       <c r="J6" t="s">
@@ -1348,6 +1375,9 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="M6" t="s">
         <v>135</v>
       </c>
@@ -1376,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1419,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F7" t="s">
@@ -1398,7 +1428,10 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="J7" t="s">
@@ -1407,6 +1440,9 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
       <c r="M7" t="s">
         <v>137</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1484,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
@@ -1457,7 +1493,10 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J8" t="s">
@@ -1466,6 +1505,9 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
       <c r="M8" t="s">
         <v>139</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1549,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F9" t="s">
@@ -1516,7 +1558,10 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J9" t="s">
@@ -1525,6 +1570,9 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
       <c r="M9" t="s">
         <v>141</v>
       </c>
@@ -1553,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1566,7 +1614,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F10" t="s">
@@ -1575,7 +1623,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>123</v>
       </c>
       <c r="J10" t="s">
@@ -1584,6 +1635,9 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
       <c r="M10" t="s">
         <v>143</v>
       </c>
@@ -1612,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1679,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F11" t="s">
@@ -1634,7 +1688,10 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>125</v>
       </c>
       <c r="J11" t="s">
@@ -1643,6 +1700,9 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
       <c r="M11" t="s">
         <v>145</v>
       </c>
@@ -1665,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1679,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1707,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1763,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1777,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1791,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1805,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1819,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1833,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1847,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1861,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -1875,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -1889,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1903,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -1917,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1931,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -1945,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1959,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -1973,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -1987,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -2001,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -2015,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -2029,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -2043,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2054,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2065,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>

--- a/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAABDB6-74B5-4FC0-8FB8-C4642CA63F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86CD97-3F7F-4415-ABB8-0B29A41B0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="780" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="-21870" yWindow="1365" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,13 +1118,16 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N2" t="s">
         <v>128</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
@@ -1183,13 +1186,16 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N3" t="s">
         <v>130</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
@@ -1248,13 +1254,16 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N4" t="s">
         <v>132</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
@@ -1313,13 +1322,16 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N5" t="s">
         <v>134</v>
       </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
@@ -1378,13 +1390,16 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N6" t="s">
         <v>136</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
@@ -1443,13 +1458,16 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N7" t="s">
         <v>138</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
@@ -1508,13 +1526,16 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N8" t="s">
         <v>140</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
@@ -1573,13 +1594,16 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N9" t="s">
         <v>142</v>
       </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
@@ -1638,13 +1662,16 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N10" t="s">
         <v>144</v>
       </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
@@ -1703,13 +1730,16 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N11" t="s">
         <v>146</v>
       </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
       <c r="S11">

--- a/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E86CD97-3F7F-4415-ABB8-0B29A41B0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD6C5C-E46A-41FD-B326-764290FC26BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21870" yWindow="1365" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="189">
   <si>
     <t>Description</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>Alice's Adventures DLC</t>
+  </si>
+  <si>
+    <t>Down the Rabbit-Hole</t>
+  </si>
+  <si>
+    <t>Complete the Wonderland Entrance job</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" activeCellId="1" sqref="Q2:Q5 Q7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,22 +1136,28 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>147</v>
+      <c r="Q2" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="R2" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>165</v>
       </c>
       <c r="V2" t="s">
         <v>166</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
     </row>
@@ -1198,22 +1210,28 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>149</v>
+      <c r="Q3" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="R3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>167</v>
       </c>
       <c r="V3" t="s">
         <v>168</v>
       </c>
       <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>1</v>
       </c>
     </row>
@@ -1266,22 +1284,28 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
-        <v>151</v>
+      <c r="Q4" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="R4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>169</v>
       </c>
       <c r="V4" t="s">
         <v>170</v>
       </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
     </row>
@@ -1334,22 +1358,28 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
-        <v>153</v>
+      <c r="Q5" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="R5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>171</v>
       </c>
       <c r="V5" t="s">
         <v>172</v>
       </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
     </row>
@@ -1403,21 +1433,24 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="3" t="s">
         <v>173</v>
       </c>
       <c r="V6" t="s">
         <v>174</v>
       </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>1</v>
       </c>
     </row>
@@ -1470,22 +1503,28 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>157</v>
+      <c r="Q7" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="R7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>175</v>
       </c>
       <c r="V7" t="s">
         <v>176</v>
       </c>
       <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
     </row>
@@ -1538,22 +1577,28 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>159</v>
+      <c r="Q8" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="R8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>177</v>
       </c>
       <c r="V8" t="s">
         <v>178</v>
       </c>
       <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>1</v>
       </c>
     </row>
@@ -1606,22 +1651,28 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>161</v>
+      <c r="Q9" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="R9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="V9" t="s">
         <v>180</v>
       </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>1</v>
       </c>
     </row>
@@ -1674,22 +1725,28 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>163</v>
+      <c r="Q10" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="R10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>181</v>
       </c>
       <c r="V10" t="s">
         <v>182</v>
       </c>
       <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
         <v>1</v>
       </c>
     </row>
@@ -1742,16 +1799,25 @@
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" t="s">
+        <v>164</v>
+      </c>
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="3" t="s">
         <v>183</v>
       </c>
       <c r="V11" t="s">
         <v>184</v>
       </c>
       <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
         <v>1</v>
       </c>
     </row>

--- a/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DD6C5C-E46A-41FD-B326-764290FC26BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD3787-46A0-4CAF-A335-FFA8CE496BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="-24240" yWindow="900" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" activeCellId="1" sqref="Q2:Q5 Q7:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,13 +1432,16 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>153</v>
       </c>
       <c r="R6" t="s">
         <v>154</v>
       </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
       <c r="U6" s="3" t="s">
@@ -1799,13 +1802,16 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>163</v>
       </c>
       <c r="R11" t="s">
         <v>164</v>
       </c>
       <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
       <c r="U11" s="3" t="s">
